--- a/tools/luban/Datas/Buffs.xlsx
+++ b/tools/luban/Datas/Buffs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B34F50-DCF8-4D1E-A032-BABB6FAA7EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D422C8-57B3-46A3-A442-52BF13D7EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -1271,9 +1271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://icon.svg</t>
-  </si>
-  <si>
     <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1379,6 +1376,10 @@
   </si>
   <si>
     <t>[max_hp] * 0.03</t>
+  </si>
+  <si>
+    <t>sword.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5901,8 +5902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6125,10 +6126,10 @@
         <v>10001</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -6171,7 +6172,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -6214,7 +6215,7 @@
         <v>185</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -6238,13 +6239,13 @@
         <v>4003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M9" s="5">
         <v>0.01</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>85</v>
@@ -6259,7 +6260,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -6283,13 +6284,13 @@
         <v>4004</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M10" s="5">
         <v>0.01</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>88</v>
@@ -6304,7 +6305,7 @@
         <v>114</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -6328,13 +6329,13 @@
         <v>4005</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M11" s="5">
         <v>0.01</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>36</v>
@@ -6349,7 +6350,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -6373,13 +6374,13 @@
         <v>4006</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M12" s="5">
         <v>0.01</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>40</v>
@@ -6394,7 +6395,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -6418,13 +6419,13 @@
         <v>4007</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M13" s="5">
         <v>0.01</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>100</v>
@@ -6439,7 +6440,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -6463,13 +6464,13 @@
         <v>4008</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M14" s="5">
         <v>0.01</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>95</v>
@@ -6484,7 +6485,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -6508,13 +6509,13 @@
         <v>4009</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M15" s="5">
         <v>0.01</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>93</v>
@@ -6529,7 +6530,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -6553,13 +6554,13 @@
         <v>4010</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M16" s="5">
         <v>0.01</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>102</v>
@@ -6574,7 +6575,7 @@
         <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -6617,7 +6618,7 @@
         <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -6641,13 +6642,13 @@
         <v>4012</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M18" s="5">
         <v>0.01</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>85</v>
@@ -6662,7 +6663,7 @@
         <v>107</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -6686,13 +6687,13 @@
         <v>4013</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M19" s="5">
         <v>0.01</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>88</v>
@@ -6707,7 +6708,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -6731,13 +6732,13 @@
         <v>4014</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M20" s="5">
         <v>0.01</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>36</v>
@@ -6752,7 +6753,7 @@
         <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -6776,13 +6777,13 @@
         <v>4015</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M21" s="5">
         <v>0.01</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>40</v>
@@ -6797,7 +6798,7 @@
         <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -6821,13 +6822,13 @@
         <v>4016</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M22" s="5">
         <v>0.01</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>100</v>
@@ -6842,7 +6843,7 @@
         <v>107</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -6866,13 +6867,13 @@
         <v>4017</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M23" s="5">
         <v>0.01</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>95</v>
@@ -6887,7 +6888,7 @@
         <v>107</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -6911,13 +6912,13 @@
         <v>4018</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M24" s="5">
         <v>0.01</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>93</v>
@@ -6932,7 +6933,7 @@
         <v>107</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -6956,13 +6957,13 @@
         <v>4019</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M25" s="5">
         <v>0.01</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>102</v>
@@ -7426,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7464,7 +7465,7 @@
         <v>301</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -7570,7 +7571,7 @@
         <v>302</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>27</v>
@@ -7667,7 +7668,7 @@
         <v>300</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -7713,7 +7714,7 @@
         <v>241</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -7808,10 +7809,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -7857,7 +7858,7 @@
         <v>237</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -7981,7 +7982,7 @@
         <v>242</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -8027,7 +8028,7 @@
         <v>243</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -8073,7 +8074,7 @@
         <v>244</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -8119,7 +8120,7 @@
         <v>245</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -8165,7 +8166,7 @@
         <v>246</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -8211,7 +8212,7 @@
         <v>247</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -8257,7 +8258,7 @@
         <v>248</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -8303,7 +8304,7 @@
         <v>249</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -8349,7 +8350,7 @@
         <v>250</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -8395,7 +8396,7 @@
         <v>251</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -8441,7 +8442,7 @@
         <v>252</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -8487,7 +8488,7 @@
         <v>253</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -8533,7 +8534,7 @@
         <v>254</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -8579,7 +8580,7 @@
         <v>255</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -8625,7 +8626,7 @@
         <v>256</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -8671,7 +8672,7 @@
         <v>257</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -8717,7 +8718,7 @@
         <v>258</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -8763,7 +8764,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -8809,7 +8810,7 @@
         <v>260</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -8855,7 +8856,7 @@
         <v>261</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -8901,7 +8902,7 @@
         <v>262</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -8947,7 +8948,7 @@
         <v>263</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -8993,7 +8994,7 @@
         <v>264</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -9039,7 +9040,7 @@
         <v>265</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -9085,7 +9086,7 @@
         <v>266</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -9131,7 +9132,7 @@
         <v>267</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -9177,7 +9178,7 @@
         <v>268</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -9223,7 +9224,7 @@
         <v>269</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -9269,7 +9270,7 @@
         <v>270</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -9315,7 +9316,7 @@
         <v>271</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -9361,7 +9362,7 @@
         <v>272</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -9407,7 +9408,7 @@
         <v>273</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -9453,7 +9454,7 @@
         <v>274</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -9499,7 +9500,7 @@
         <v>275</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -9545,7 +9546,7 @@
         <v>276</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -9591,7 +9592,7 @@
         <v>277</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -9637,7 +9638,7 @@
         <v>278</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -9683,7 +9684,7 @@
         <v>279</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -9729,7 +9730,7 @@
         <v>280</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -9775,7 +9776,7 @@
         <v>281</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -9821,7 +9822,7 @@
         <v>282</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -9867,7 +9868,7 @@
         <v>283</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -9913,7 +9914,7 @@
         <v>284</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -9959,7 +9960,7 @@
         <v>285</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -10005,7 +10006,7 @@
         <v>286</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -10051,7 +10052,7 @@
         <v>287</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -10097,7 +10098,7 @@
         <v>288</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -10143,7 +10144,7 @@
         <v>289</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -10189,7 +10190,7 @@
         <v>290</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -10235,7 +10236,7 @@
         <v>291</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -10281,7 +10282,7 @@
         <v>292</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -10327,7 +10328,7 @@
         <v>293</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -10373,7 +10374,7 @@
         <v>294</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -10419,7 +10420,7 @@
         <v>295</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -10465,7 +10466,7 @@
         <v>296</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -10511,7 +10512,7 @@
         <v>297</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -10557,7 +10558,7 @@
         <v>298</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -10603,7 +10604,7 @@
         <v>299</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>

--- a/tools/luban/Datas/Buffs.xlsx
+++ b/tools/luban/Datas/Buffs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D422C8-57B3-46A3-A442-52BF13D7EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B5975-3401-43EE-9DF1-B44FAE0B6532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="299">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,9 +1067,6 @@
     <t>所有元素伤害 + 10</t>
   </si>
   <si>
-    <t>fire_damage</t>
-  </si>
-  <si>
     <t>毒素抗性 + 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,14 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量、智慧、敏捷 + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率 + 10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰伤害 + {s}。</t>
   </si>
   <si>
@@ -1116,39 +1105,6 @@
     <t>物理抗性 + {s}。</t>
   </si>
   <si>
-    <t>火焰 + {s}%。</t>
-  </si>
-  <si>
-    <t>冰霜 + {s}%。</t>
-  </si>
-  <si>
-    <t>闪电 + {s}%。</t>
-  </si>
-  <si>
-    <t>毒素 + {s}%。</t>
-  </si>
-  <si>
-    <t>物理 + {s}%。</t>
-  </si>
-  <si>
-    <t>火焰抗性 + {s}%。</t>
-  </si>
-  <si>
-    <t>冰霜抗性 + {s}%。</t>
-  </si>
-  <si>
-    <t>闪电抗性 + {s}%。</t>
-  </si>
-  <si>
-    <t>毒素抗性 + {s}%。</t>
-  </si>
-  <si>
-    <t>物理抗性 + {s}%。</t>
-  </si>
-  <si>
-    <t>最大生命值 + {s}。</t>
-  </si>
-  <si>
     <t>生命回复 + {s}。</t>
   </si>
   <si>
@@ -1198,61 +1154,6 @@
   </si>
   <si>
     <t>视野 + {s}。</t>
-  </si>
-  <si>
-    <t>攻击范围 + {s}%。</t>
-  </si>
-  <si>
-    <t>视野 + {s}%。</t>
-  </si>
-  <si>
-    <t>最大生命值 + {s}%。</t>
-  </si>
-  <si>
-    <t>生命回复 + {s}%。</t>
-  </si>
-  <si>
-    <t>防御 + {s}%。</t>
-  </si>
-  <si>
-    <t>闪避 + {s}%。</t>
-  </si>
-  <si>
-    <t>幸运 + {s}%。</t>
-  </si>
-  <si>
-    <t>速度 + {s}%。</t>
-  </si>
-  <si>
-    <t>治疗效率 + {s}%。</t>
-  </si>
-  <si>
-    <t>暴击率 + {s}%。</t>
-  </si>
-  <si>
-    <t>暴击伤害 + {s}%。</t>
-  </si>
-  <si>
-    <t>易伤伤害 + {s}%。</t>
-  </si>
-  <si>
-    <t>易伤率 + {s}%。</t>
-  </si>
-  <si>
-    <t>魔力 + {s}%。</t>
-  </si>
-  <si>
-    <t>攻击速度 + {s}%。</t>
-  </si>
-  <si>
-    <t>力量 + {s}%。</t>
-  </si>
-  <si>
-    <t>智慧 + {s}%。</t>
-  </si>
-  <si>
-    <t>敏捷 + {s}%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>防御 + {s}。</t>
@@ -2701,7 +2602,7 @@
         <v>186</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -3131,7 +3032,7 @@
         <v>196</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -6126,10 +6027,10 @@
         <v>10001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -6172,7 +6073,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -6215,7 +6116,7 @@
         <v>185</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -6239,13 +6140,13 @@
         <v>4003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M9" s="5">
         <v>0.01</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>85</v>
@@ -6260,7 +6161,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -6284,13 +6185,13 @@
         <v>4004</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M10" s="5">
         <v>0.01</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>88</v>
@@ -6305,7 +6206,7 @@
         <v>114</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -6329,13 +6230,13 @@
         <v>4005</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M11" s="5">
         <v>0.01</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>36</v>
@@ -6350,7 +6251,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -6374,13 +6275,13 @@
         <v>4006</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M12" s="5">
         <v>0.01</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>40</v>
@@ -6395,7 +6296,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -6419,13 +6320,13 @@
         <v>4007</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M13" s="5">
         <v>0.01</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>100</v>
@@ -6440,7 +6341,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -6464,13 +6365,13 @@
         <v>4008</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M14" s="5">
         <v>0.01</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>95</v>
@@ -6485,7 +6386,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -6509,13 +6410,13 @@
         <v>4009</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M15" s="5">
         <v>0.01</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>93</v>
@@ -6530,7 +6431,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -6554,13 +6455,13 @@
         <v>4010</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M16" s="5">
         <v>0.01</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>102</v>
@@ -6575,7 +6476,7 @@
         <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -6618,7 +6519,7 @@
         <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -6642,13 +6543,13 @@
         <v>4012</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M18" s="5">
         <v>0.01</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>85</v>
@@ -6663,7 +6564,7 @@
         <v>107</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -6687,13 +6588,13 @@
         <v>4013</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M19" s="5">
         <v>0.01</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>88</v>
@@ -6708,7 +6609,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -6732,13 +6633,13 @@
         <v>4014</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M20" s="5">
         <v>0.01</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>36</v>
@@ -6753,7 +6654,7 @@
         <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -6777,13 +6678,13 @@
         <v>4015</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M21" s="5">
         <v>0.01</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>40</v>
@@ -6798,7 +6699,7 @@
         <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -6822,13 +6723,13 @@
         <v>4016</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M22" s="5">
         <v>0.01</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>100</v>
@@ -6843,7 +6744,7 @@
         <v>107</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -6867,13 +6768,13 @@
         <v>4017</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M23" s="5">
         <v>0.01</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>95</v>
@@ -6888,7 +6789,7 @@
         <v>107</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -6912,13 +6813,13 @@
         <v>4018</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M24" s="5">
         <v>0.01</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>93</v>
@@ -6933,7 +6834,7 @@
         <v>107</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -6957,13 +6858,13 @@
         <v>4019</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M25" s="5">
         <v>0.01</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>102</v>
@@ -7425,10 +7326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7462,10 +7363,10 @@
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -7568,10 +7469,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>27</v>
@@ -7665,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -7711,10 +7612,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -7738,81 +7639,121 @@
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>5002</v>
+        <v>5005</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
       <c r="L9" s="5">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
       <c r="L10" s="5">
-        <v>5004</v>
+        <v>5011</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="6" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -7836,29 +7777,29 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>5005</v>
+        <v>5012</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="6" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -7882,107 +7823,167 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
       <c r="L13" s="5">
-        <v>5007</v>
+        <v>5014</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="6" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="5">
-        <v>5008</v>
+        <v>5015</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N14" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
       <c r="L15" s="5">
-        <v>5009</v>
+        <v>5016</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -8006,29 +8007,29 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>5010</v>
+        <v>5017</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N16" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="6" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -8052,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>5011</v>
+        <v>5018</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>23</v>
@@ -8062,19 +8063,19 @@
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="6" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -8098,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>5012</v>
+        <v>5019</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>23</v>
@@ -8108,19 +8109,19 @@
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="6" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -8144,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>5013</v>
+        <v>5020</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>23</v>
@@ -8154,19 +8155,19 @@
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -8190,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>5014</v>
+        <v>5032</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>23</v>
@@ -8200,19 +8201,19 @@
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="6" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -8236,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>5015</v>
+        <v>5033</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>23</v>
@@ -8246,19 +8247,19 @@
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="6" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -8282,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>5016</v>
+        <v>5034</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>23</v>
@@ -8292,19 +8293,19 @@
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="6" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -8328,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>5017</v>
+        <v>5035</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>23</v>
@@ -8338,19 +8339,19 @@
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="6" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -8374,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>5018</v>
+        <v>5036</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>23</v>
@@ -8384,19 +8385,19 @@
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="6" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -8420,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>5019</v>
+        <v>5037</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>23</v>
@@ -8430,19 +8431,19 @@
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="6" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -8466,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>5020</v>
+        <v>5038</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>23</v>
@@ -8476,19 +8477,19 @@
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="6" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -8512,29 +8513,29 @@
         <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>5021</v>
+        <v>5039</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N27" s="5">
         <v>0</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="6" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -8558,29 +8559,29 @@
         <v>0</v>
       </c>
       <c r="L28" s="5">
-        <v>5022</v>
+        <v>5040</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N28" s="5">
         <v>0</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="6" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -8604,29 +8605,29 @@
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <v>5023</v>
+        <v>5041</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N29" s="5">
         <v>0</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="6" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -8650,29 +8651,29 @@
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>5024</v>
+        <v>5042</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N30" s="5">
         <v>0</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="6" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -8696,29 +8697,29 @@
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <v>5025</v>
+        <v>5043</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N31" s="5">
         <v>0</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -8742,29 +8743,29 @@
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>5026</v>
+        <v>5044</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="6" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -8788,29 +8789,29 @@
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>5027</v>
+        <v>5045</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="6" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -8834,75 +8835,75 @@
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>5028</v>
+        <v>5046</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N34" s="5">
         <v>0</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="6" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>5047</v>
+      </c>
+      <c r="M35" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <v>5029</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="N35" s="5">
         <v>0</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="6" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -8926,1718 +8927,62 @@
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>5030</v>
+        <v>5048</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N36" s="5">
         <v>0</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="6" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3">
-        <v>25</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>263</v>
+        <v>30</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
+      <c r="F37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <v>0</v>
+      </c>
+      <c r="K37" s="17">
         <v>0</v>
       </c>
       <c r="L37" s="5">
-        <v>5031</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3">
-        <v>26</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>5032</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3">
-        <v>27</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>5033</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3">
-        <v>28</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>5034</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>5035</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3">
-        <v>30</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>5036</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3">
-        <v>31</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
-        <v>5037</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3">
-        <v>32</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>5038</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3">
-        <v>33</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
-        <v>5039</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3">
-        <v>34</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>5040</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3">
-        <v>35</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>5041</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3">
-        <v>36</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>5042</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3">
-        <v>37</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="5">
-        <v>5043</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" s="5">
-        <v>0</v>
-      </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3">
-        <v>38</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="5">
-        <v>5044</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="5">
-        <v>0</v>
-      </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3">
-        <v>39</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="5">
-        <v>5045</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N51" s="5">
-        <v>0</v>
-      </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3">
-        <v>40</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="5">
-        <v>5046</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N52" s="5">
-        <v>0</v>
-      </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3">
-        <v>41</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="5">
-        <v>5047</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N53" s="5">
-        <v>0</v>
-      </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3">
-        <v>42</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="5">
-        <v>5048</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N54" s="5">
-        <v>0</v>
-      </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3">
-        <v>43</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
-      <c r="L55" s="5">
-        <v>5049</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N55" s="5">
-        <v>0</v>
-      </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3">
-        <v>44</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
-      <c r="L56" s="5">
-        <v>5050</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N56" s="5">
-        <v>0</v>
-      </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3">
-        <v>45</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="5">
-        <v>5051</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N57" s="5">
-        <v>0</v>
-      </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3">
-        <v>46</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="5">
-        <v>5052</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N58" s="5">
-        <v>0</v>
-      </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3">
-        <v>47</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="5">
-        <v>5053</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N59" s="5">
-        <v>0</v>
-      </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3">
-        <v>48</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="5">
-        <v>5054</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N60" s="5">
-        <v>0</v>
-      </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3">
-        <v>49</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="5">
-        <v>5055</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N61" s="5">
-        <v>0</v>
-      </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3">
-        <v>50</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="5">
-        <v>5056</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N62" s="5">
-        <v>0</v>
-      </c>
-      <c r="O62" s="5"/>
-      <c r="P62" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3">
-        <v>51</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="5">
-        <v>5057</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N63" s="5">
-        <v>0</v>
-      </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3">
-        <v>52</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="5">
-        <v>5058</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N64" s="5">
-        <v>0</v>
-      </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3">
-        <v>53</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="5">
-        <v>5059</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N65" s="5">
-        <v>0</v>
-      </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3">
-        <v>54</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="5">
-        <v>5060</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N66" s="5">
-        <v>0</v>
-      </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3">
-        <v>55</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="5">
-        <v>5061</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N67" s="5">
-        <v>0</v>
-      </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3">
-        <v>56</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
-      <c r="L68" s="5">
-        <v>5062</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N68" s="5">
-        <v>0</v>
-      </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3">
-        <v>57</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="5">
-        <v>5063</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N69" s="5">
-        <v>0</v>
-      </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3">
-        <v>58</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="5">
-        <v>5064</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N70" s="5">
-        <v>0</v>
-      </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3">
-        <v>59</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
-      <c r="L71" s="5">
-        <v>5065</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N71" s="5">
-        <v>0</v>
-      </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3">
-        <v>60</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="5">
-        <v>5066</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N72" s="5">
-        <v>0</v>
-      </c>
-      <c r="O72" s="5"/>
-      <c r="P72" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3">
-        <v>61</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="17">
-        <v>0</v>
-      </c>
-      <c r="I73" s="17">
-        <v>0</v>
-      </c>
-      <c r="J73" s="17">
-        <v>0</v>
-      </c>
-      <c r="K73" s="17">
-        <v>0</v>
-      </c>
-      <c r="L73" s="5">
         <v>5067</v>
       </c>
-      <c r="M73" s="18" t="s">
+      <c r="M37" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="N73" s="18">
-        <v>0</v>
-      </c>
-      <c r="O73" s="18"/>
-      <c r="P73" s="19" t="s">
+      <c r="N37" s="18">
+        <v>0</v>
+      </c>
+      <c r="O37" s="18"/>
+      <c r="P37" s="19" t="s">
         <v>143</v>
       </c>
     </row>

--- a/tools/luban/Datas/Buffs.xlsx
+++ b/tools/luban/Datas/Buffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B5975-3401-43EE-9DF1-B44FAE0B6532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B5B7B9-0983-4608-9D84-8F44A9603D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,7 +1279,7 @@
     <t>[max_hp] * 0.03</t>
   </si>
   <si>
-    <t>sword.png</t>
+    <t>Sword.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5803,7 +5803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -7328,8 +7328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/tools/luban/Datas/Buffs.xlsx
+++ b/tools/luban/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B5B7B9-0983-4608-9D84-8F44A9603D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7D0CF-2777-4BAD-BAC8-F11BC05CF9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="290">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,14 +182,6 @@
   </si>
   <si>
     <t>冰霜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜伤害 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰伤害 + 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,82 +580,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火焰抗性 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电抗性 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理抗性 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电伤害 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素伤害 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理抗性百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰伤害 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜伤害 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电伤害 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素伤害 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰抗性 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电抗性 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MORE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闪避</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易伤率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智慧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,10 +646,6 @@
     <t>defense</t>
   </si>
   <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视野</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,60 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击范围百分比</t>
-  </si>
-  <si>
-    <t>视野百分比</t>
-  </si>
-  <si>
-    <t>最大生命值百分比</t>
-  </si>
-  <si>
-    <t>生命回复百分比</t>
-  </si>
-  <si>
-    <t>防御百分比</t>
-  </si>
-  <si>
-    <t>闪避百分比</t>
-  </si>
-  <si>
-    <t>幸运百分比</t>
-  </si>
-  <si>
-    <t>速度百分比</t>
-  </si>
-  <si>
-    <t>治疗效率百分比</t>
-  </si>
-  <si>
-    <t>暴击率百分比</t>
-  </si>
-  <si>
-    <t>暴击伤害百分比</t>
-  </si>
-  <si>
-    <t>易伤伤害百分比</t>
-  </si>
-  <si>
-    <t>易伤率百分比</t>
-  </si>
-  <si>
-    <t>魔力百分比</t>
-  </si>
-  <si>
-    <t>攻击速度百分比</t>
-  </si>
-  <si>
-    <t>力量百分比</t>
-  </si>
-  <si>
-    <t>智慧百分比</t>
-  </si>
-  <si>
-    <t>敏捷百分比</t>
-  </si>
-  <si>
     <t>伤害计算：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,14 +937,6 @@
     <t>所有元素伤害 + 10</t>
   </si>
   <si>
-    <t>毒素抗性 + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素抗性 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰伤害 + {s}。</t>
   </si>
   <si>
@@ -1280,6 +1142,97 @@
   </si>
   <si>
     <t>Sword.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰 + {s}%。</t>
+  </si>
+  <si>
+    <t>冰霜 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪电 + {s}%。</t>
+  </si>
+  <si>
+    <t>毒素 + {s}%。</t>
+  </si>
+  <si>
+    <t>物理 + {s}%。</t>
+  </si>
+  <si>
+    <t>火焰抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>冰霜抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪电抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>毒素抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>物理抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>最大生命值 + {s}。</t>
+  </si>
+  <si>
+    <t>攻击范围 + {s}%。</t>
+  </si>
+  <si>
+    <t>视野 + {s}%。</t>
+  </si>
+  <si>
+    <t>最大生命值 + {s}%。</t>
+  </si>
+  <si>
+    <t>生命回复 + {s}%。</t>
+  </si>
+  <si>
+    <t>防御 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪避 + {s}%。</t>
+  </si>
+  <si>
+    <t>幸运 + {s}%。</t>
+  </si>
+  <si>
+    <t>速度 + {s}%。</t>
+  </si>
+  <si>
+    <t>治疗效率 + {s}%。</t>
+  </si>
+  <si>
+    <t>暴击率 + {s}%。</t>
+  </si>
+  <si>
+    <t>暴击伤害 + {s}%。</t>
+  </si>
+  <si>
+    <t>易伤伤害 + {s}%。</t>
+  </si>
+  <si>
+    <t>易伤率 + {s}%。</t>
+  </si>
+  <si>
+    <t>魔力 + {s}%。</t>
+  </si>
+  <si>
+    <t>攻击速度 + {s}%。</t>
+  </si>
+  <si>
+    <t>力量 + {s}%。</t>
+  </si>
+  <si>
+    <t>智慧 + {s}%。</t>
+  </si>
+  <si>
+    <t>敏捷 + {s}%。</t>
+  </si>
+  <si>
+    <t>atk_cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2028,9 +1981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2243,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -2255,10 +2208,10 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -2301,7 +2254,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -2332,7 +2285,7 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -2341,10 +2294,10 @@
         <v>1003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -2375,7 +2328,7 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2384,10 +2337,10 @@
         <v>1004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -2418,7 +2371,7 @@
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2427,10 +2380,10 @@
         <v>1005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -2461,7 +2414,7 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2470,10 +2423,10 @@
         <v>1006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -2504,7 +2457,7 @@
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -2516,7 +2469,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -2547,7 +2500,7 @@
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -2556,10 +2509,10 @@
         <v>1008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -2590,7 +2543,7 @@
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -2599,10 +2552,10 @@
         <v>1009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -2633,7 +2586,7 @@
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -2642,10 +2595,10 @@
         <v>1010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -2676,7 +2629,7 @@
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -2685,10 +2638,10 @@
         <v>1011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -2712,7 +2665,7 @@
         <v>1011</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
@@ -2728,10 +2681,10 @@
         <v>1012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -2755,14 +2708,14 @@
         <v>1012</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -2771,10 +2724,10 @@
         <v>1013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -2798,14 +2751,14 @@
         <v>1013</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -2814,10 +2767,10 @@
         <v>1014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -2841,14 +2794,14 @@
         <v>1014</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -2857,10 +2810,10 @@
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -2884,14 +2837,14 @@
         <v>1015</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -2900,10 +2853,10 @@
         <v>1016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2927,14 +2880,14 @@
         <v>1016</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -2943,10 +2896,10 @@
         <v>1017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2970,14 +2923,14 @@
         <v>1017</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M23" s="5">
         <v>0</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2986,10 +2939,10 @@
         <v>1018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -3013,14 +2966,14 @@
         <v>1018</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M24" s="5">
         <v>0</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -3029,10 +2982,10 @@
         <v>1019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -3056,14 +3009,14 @@
         <v>1019</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M25" s="5">
         <v>0</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -3072,10 +3025,10 @@
         <v>1020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>0</v>
@@ -3099,14 +3052,14 @@
         <v>1020</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M26" s="5">
         <v>0</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -3115,10 +3068,10 @@
         <v>1021</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>0</v>
@@ -3149,7 +3102,7 @@
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="6" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -3158,10 +3111,10 @@
         <v>1022</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>0</v>
@@ -3192,7 +3145,7 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="6" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -3201,10 +3154,10 @@
         <v>1023</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>0</v>
@@ -3235,7 +3188,7 @@
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="6" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -3244,10 +3197,10 @@
         <v>1024</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="E30" s="3" t="b">
         <v>0</v>
@@ -3278,7 +3231,7 @@
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="6" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -3287,10 +3240,10 @@
         <v>1025</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="E31" s="3" t="b">
         <v>0</v>
@@ -3321,7 +3274,7 @@
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -3330,10 +3283,10 @@
         <v>1026</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="E32" s="3" t="b">
         <v>0</v>
@@ -3364,7 +3317,7 @@
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="6" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -3373,10 +3326,10 @@
         <v>1027</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="E33" s="3" t="b">
         <v>0</v>
@@ -3407,7 +3360,7 @@
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -3416,10 +3369,10 @@
         <v>1028</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="E34" s="3" t="b">
         <v>0</v>
@@ -3450,7 +3403,7 @@
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -3459,10 +3412,10 @@
         <v>1029</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="E35" s="3" t="b">
         <v>0</v>
@@ -3493,7 +3446,7 @@
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="6" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -3502,10 +3455,10 @@
         <v>1030</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="E36" s="3" t="b">
         <v>0</v>
@@ -3536,7 +3489,7 @@
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="6" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -3545,10 +3498,10 @@
         <v>1031</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>0</v>
@@ -3579,7 +3532,7 @@
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="6" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -3588,10 +3541,10 @@
         <v>1032</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="E38" s="3" t="b">
         <v>0</v>
@@ -3622,7 +3575,7 @@
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="6" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -3631,10 +3584,10 @@
         <v>1033</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="E39" s="3" t="b">
         <v>0</v>
@@ -3665,7 +3618,7 @@
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="6" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -3674,10 +3627,10 @@
         <v>1034</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="E40" s="3" t="b">
         <v>0</v>
@@ -3708,7 +3661,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -3717,10 +3670,10 @@
         <v>1035</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="E41" s="3" t="b">
         <v>0</v>
@@ -3751,7 +3704,7 @@
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -3760,10 +3713,10 @@
         <v>1036</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="E42" s="3" t="b">
         <v>0</v>
@@ -3794,7 +3747,7 @@
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="6" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -3803,10 +3756,10 @@
         <v>1037</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="E43" s="3" t="b">
         <v>0</v>
@@ -3837,7 +3790,7 @@
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -3846,10 +3799,10 @@
         <v>1038</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="E44" s="3" t="b">
         <v>0</v>
@@ -3880,7 +3833,7 @@
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -3889,10 +3842,10 @@
         <v>1039</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="E45" s="3" t="b">
         <v>0</v>
@@ -3916,14 +3869,14 @@
         <v>1038</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M45" s="5">
         <v>0</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -3932,10 +3885,10 @@
         <v>1040</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="E46" s="3" t="b">
         <v>0</v>
@@ -3959,14 +3912,14 @@
         <v>1039</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M46" s="5">
         <v>0</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -3975,10 +3928,10 @@
         <v>1041</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="E47" s="3" t="b">
         <v>0</v>
@@ -4002,14 +3955,14 @@
         <v>1040</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M47" s="5">
         <v>0</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="6" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -4018,10 +3971,10 @@
         <v>1042</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="E48" s="3" t="b">
         <v>0</v>
@@ -4045,14 +3998,14 @@
         <v>1041</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M48" s="5">
         <v>0</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="6" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -4061,10 +4014,10 @@
         <v>1043</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="E49" s="3" t="b">
         <v>0</v>
@@ -4088,14 +4041,14 @@
         <v>1042</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M49" s="5">
         <v>0</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="6" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -4104,10 +4057,10 @@
         <v>1044</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="E50" s="3" t="b">
         <v>0</v>
@@ -4131,14 +4084,14 @@
         <v>1043</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M50" s="5">
         <v>0</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="6" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -4147,10 +4100,10 @@
         <v>1045</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="E51" s="3" t="b">
         <v>0</v>
@@ -4174,14 +4127,14 @@
         <v>1044</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M51" s="5">
         <v>0</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="6" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -4190,10 +4143,10 @@
         <v>1046</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="E52" s="3" t="b">
         <v>0</v>
@@ -4217,14 +4170,14 @@
         <v>1045</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M52" s="5">
         <v>0</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="6" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -4233,10 +4186,10 @@
         <v>1047</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="E53" s="3" t="b">
         <v>0</v>
@@ -4260,14 +4213,14 @@
         <v>1046</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M53" s="5">
         <v>0</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="6" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -4276,10 +4229,10 @@
         <v>1048</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="E54" s="3" t="b">
         <v>0</v>
@@ -4303,14 +4256,14 @@
         <v>1047</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M54" s="5">
         <v>0</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -4319,10 +4272,10 @@
         <v>1049</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="E55" s="3" t="b">
         <v>0</v>
@@ -4346,14 +4299,14 @@
         <v>1048</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M55" s="5">
         <v>0</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="6" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -4362,10 +4315,10 @@
         <v>1050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="E56" s="3" t="b">
         <v>0</v>
@@ -4389,14 +4342,14 @@
         <v>1049</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -4405,10 +4358,10 @@
         <v>1051</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="E57" s="3" t="b">
         <v>0</v>
@@ -4432,14 +4385,14 @@
         <v>1050</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M57" s="5">
         <v>0</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="6" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -4448,10 +4401,10 @@
         <v>1052</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="E58" s="3" t="b">
         <v>0</v>
@@ -4475,14 +4428,14 @@
         <v>1051</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M58" s="5">
         <v>0</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="6" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -4491,10 +4444,10 @@
         <v>1053</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="E59" s="3" t="b">
         <v>0</v>
@@ -4518,14 +4471,14 @@
         <v>1052</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M59" s="5">
         <v>0</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="6" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -4534,10 +4487,10 @@
         <v>1054</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="E60" s="3" t="b">
         <v>0</v>
@@ -4561,14 +4514,14 @@
         <v>1053</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M60" s="5">
         <v>0</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="6" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -4577,10 +4530,10 @@
         <v>1055</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="E61" s="3" t="b">
         <v>0</v>
@@ -4604,14 +4557,14 @@
         <v>1054</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M61" s="5">
         <v>0</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -4620,10 +4573,10 @@
         <v>1056</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="E62" s="3" t="b">
         <v>0</v>
@@ -4647,14 +4600,14 @@
         <v>1055</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M62" s="5">
         <v>0</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -4663,10 +4616,10 @@
         <v>1057</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E63" s="17" t="b">
         <v>0</v>
@@ -4690,14 +4643,14 @@
         <v>1056</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="M63" s="18">
         <v>0</v>
       </c>
       <c r="N63" s="18"/>
       <c r="O63" s="19" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -4706,10 +4659,10 @@
         <v>1058</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="E64" s="17" t="b">
         <v>0</v>
@@ -4733,14 +4686,14 @@
         <v>1057</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="M64" s="18">
         <v>0</v>
       </c>
       <c r="N64" s="18"/>
       <c r="O64" s="19" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4972,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -4984,7 +4937,7 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="b">
@@ -5009,14 +4962,14 @@
         <v>2001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5034,14 +4987,14 @@
         <v>2002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5059,14 +5012,14 @@
         <v>2003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5439,7 +5392,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -5451,10 +5404,10 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -5485,7 +5438,7 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5494,10 +5447,10 @@
         <v>1002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -5528,7 +5481,7 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6015,7 +5968,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -6027,10 +5980,10 @@
         <v>10001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -6054,14 +6007,14 @@
         <v>4001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M7" s="5">
         <v>0.01</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6070,10 +6023,10 @@
         <v>10002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -6097,14 +6050,14 @@
         <v>4002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M8" s="5">
         <v>0.01</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6113,10 +6066,10 @@
         <v>10003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -6140,16 +6093,16 @@
         <v>4003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M9" s="5">
         <v>0.01</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6158,10 +6111,10 @@
         <v>10004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -6185,16 +6138,16 @@
         <v>4004</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M10" s="5">
         <v>0.01</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6203,10 +6156,10 @@
         <v>10005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -6230,13 +6183,13 @@
         <v>4005</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M11" s="5">
         <v>0.01</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>36</v>
@@ -6251,7 +6204,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -6275,16 +6228,16 @@
         <v>4006</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M12" s="5">
         <v>0.01</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6296,7 +6249,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -6320,16 +6273,16 @@
         <v>4007</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M13" s="5">
         <v>0.01</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6341,7 +6294,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -6365,16 +6318,16 @@
         <v>4008</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M14" s="5">
         <v>0.01</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6386,7 +6339,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -6410,16 +6363,16 @@
         <v>4009</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M15" s="5">
         <v>0.01</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6431,7 +6384,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -6455,16 +6408,16 @@
         <v>4010</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M16" s="5">
         <v>0.01</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6473,10 +6426,10 @@
         <v>10011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -6500,14 +6453,14 @@
         <v>4011</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M17" s="5">
         <v>0.15</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6516,10 +6469,10 @@
         <v>10012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -6543,16 +6496,16 @@
         <v>4012</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M18" s="5">
         <v>0.01</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6561,10 +6514,10 @@
         <v>10013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -6588,16 +6541,16 @@
         <v>4013</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M19" s="5">
         <v>0.01</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6606,10 +6559,10 @@
         <v>10014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -6633,13 +6586,13 @@
         <v>4014</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M20" s="5">
         <v>0.01</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>36</v>
@@ -6651,10 +6604,10 @@
         <v>10015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -6678,16 +6631,16 @@
         <v>4015</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M21" s="5">
         <v>0.01</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6696,10 +6649,10 @@
         <v>10016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -6723,16 +6676,16 @@
         <v>4016</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M22" s="5">
         <v>0.01</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6741,10 +6694,10 @@
         <v>10017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -6768,16 +6721,16 @@
         <v>4017</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M23" s="5">
         <v>0.01</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6786,10 +6739,10 @@
         <v>10018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -6813,16 +6766,16 @@
         <v>4018</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M24" s="5">
         <v>0.01</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6831,10 +6784,10 @@
         <v>10019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -6858,16 +6811,16 @@
         <v>4019</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="M25" s="5">
         <v>0.01</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -7328,8 +7281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D37"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7363,10 +7316,10 @@
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -7469,10 +7422,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>27</v>
@@ -7554,7 +7507,7 @@
         <v>17</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>18</v>
@@ -7566,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -7603,7 +7556,7 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7612,10 +7565,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -7649,7 +7602,7 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7658,10 +7611,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -7695,7 +7648,7 @@
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7704,10 +7657,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -7750,10 +7703,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -7787,7 +7740,7 @@
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7796,10 +7749,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -7833,7 +7786,7 @@
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7842,10 +7795,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -7879,7 +7832,7 @@
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7888,10 +7841,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -7925,7 +7878,7 @@
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7934,10 +7887,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -7971,7 +7924,7 @@
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7980,10 +7933,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -8017,7 +7970,7 @@
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8026,10 +7979,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -8063,7 +8016,7 @@
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8072,10 +8025,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -8109,7 +8062,7 @@
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8118,10 +8071,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -8155,7 +8108,7 @@
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8164,10 +8117,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -8201,7 +8154,7 @@
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="6" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8210,10 +8163,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -8247,7 +8200,7 @@
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="6" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8256,10 +8209,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -8293,7 +8246,7 @@
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="6" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8302,10 +8255,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -8339,7 +8292,7 @@
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8348,10 +8301,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -8385,7 +8338,7 @@
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="6" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8394,10 +8347,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -8431,7 +8384,7 @@
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8440,10 +8393,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -8477,7 +8430,7 @@
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8486,10 +8439,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -8523,7 +8476,7 @@
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="6" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8532,10 +8485,10 @@
         <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -8569,7 +8522,7 @@
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="6" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8578,10 +8531,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -8615,7 +8568,7 @@
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="6" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8624,10 +8577,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -8661,7 +8614,7 @@
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="6" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8670,10 +8623,10 @@
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -8707,7 +8660,7 @@
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8716,10 +8669,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -8753,7 +8706,7 @@
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8762,10 +8715,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -8799,7 +8752,7 @@
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8808,10 +8761,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -8845,7 +8798,7 @@
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="6" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8854,10 +8807,10 @@
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -8891,7 +8844,7 @@
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8900,10 +8853,10 @@
         <v>29</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -8937,7 +8890,7 @@
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8946,10 +8899,10 @@
         <v>30</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -8976,14 +8929,14 @@
         <v>5067</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="N37" s="18">
         <v>0</v>
       </c>
       <c r="O37" s="18"/>
       <c r="P37" s="19" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -9019,7 +8972,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34"/>
@@ -9031,13 +8984,13 @@
     </row>
     <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
@@ -9047,13 +9000,13 @@
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9"/>
@@ -9063,13 +9016,13 @@
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -9079,7 +9032,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
@@ -9087,272 +9040,272 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
       <c r="D12" s="14"/>
       <c r="E12" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/tools/luban/Datas/Buffs.xlsx
+++ b/tools/luban/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7D0CF-2777-4BAD-BAC8-F11BC05CF9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A188B99-8438-42A8-ACA7-DD57A3A8C724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="303">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,9 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>frost_damage</t>
-  </si>
-  <si>
     <t>damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -934,9 +931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有元素伤害 + 10</t>
-  </si>
-  <si>
     <t>火焰伤害 + {s}。</t>
   </si>
   <si>
@@ -1233,6 +1227,66 @@
   </si>
   <si>
     <t>atk_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireDamage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrostDamage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightDamage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToxicDamage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agility.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luck.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vulnerability.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atkspeed.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wisdom.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1981,9 +2035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2196,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -2208,10 +2262,10 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -2254,7 +2308,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -2294,10 +2348,10 @@
         <v>1003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -2328,7 +2382,7 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2337,10 +2391,10 @@
         <v>1004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -2371,7 +2425,7 @@
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2380,10 +2434,10 @@
         <v>1005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -2414,7 +2468,7 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2423,10 +2477,10 @@
         <v>1006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -2457,7 +2511,7 @@
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -2469,7 +2523,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -2500,7 +2554,7 @@
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -2509,10 +2563,10 @@
         <v>1008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -2543,7 +2597,7 @@
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -2552,10 +2606,10 @@
         <v>1009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -2586,7 +2640,7 @@
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -2595,10 +2649,10 @@
         <v>1010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -2629,7 +2683,7 @@
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -2638,10 +2692,10 @@
         <v>1011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -2665,7 +2719,7 @@
         <v>1011</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
@@ -2681,10 +2735,10 @@
         <v>1012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -2708,7 +2762,7 @@
         <v>1012</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -2724,10 +2778,10 @@
         <v>1013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -2751,14 +2805,14 @@
         <v>1013</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -2767,10 +2821,10 @@
         <v>1014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -2794,14 +2848,14 @@
         <v>1014</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -2810,10 +2864,10 @@
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -2837,14 +2891,14 @@
         <v>1015</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -2853,10 +2907,10 @@
         <v>1016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2880,14 +2934,14 @@
         <v>1016</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -2896,10 +2950,10 @@
         <v>1017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2923,14 +2977,14 @@
         <v>1017</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M23" s="5">
         <v>0</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2939,10 +2993,10 @@
         <v>1018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -2966,14 +3020,14 @@
         <v>1018</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M24" s="5">
         <v>0</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -2982,10 +3036,10 @@
         <v>1019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -3009,14 +3063,14 @@
         <v>1019</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M25" s="5">
         <v>0</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -3025,10 +3079,10 @@
         <v>1020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>0</v>
@@ -3052,14 +3106,14 @@
         <v>1020</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M26" s="5">
         <v>0</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -3068,10 +3122,10 @@
         <v>1021</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>0</v>
@@ -3102,7 +3156,7 @@
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -3111,10 +3165,10 @@
         <v>1022</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>0</v>
@@ -3145,7 +3199,7 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -3157,7 +3211,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>0</v>
@@ -3188,7 +3242,7 @@
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -3197,10 +3251,10 @@
         <v>1024</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E30" s="3" t="b">
         <v>0</v>
@@ -3231,7 +3285,7 @@
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -3243,7 +3297,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E31" s="3" t="b">
         <v>0</v>
@@ -3274,7 +3328,7 @@
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -3286,7 +3340,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E32" s="3" t="b">
         <v>0</v>
@@ -3317,7 +3371,7 @@
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -3326,10 +3380,10 @@
         <v>1027</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E33" s="3" t="b">
         <v>0</v>
@@ -3360,7 +3414,7 @@
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -3369,10 +3423,10 @@
         <v>1028</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E34" s="3" t="b">
         <v>0</v>
@@ -3403,7 +3457,7 @@
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -3412,10 +3466,10 @@
         <v>1029</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" s="3" t="b">
         <v>0</v>
@@ -3446,7 +3500,7 @@
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -3455,10 +3509,10 @@
         <v>1030</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E36" s="3" t="b">
         <v>0</v>
@@ -3489,7 +3543,7 @@
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -3498,10 +3552,10 @@
         <v>1031</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>0</v>
@@ -3532,7 +3586,7 @@
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -3544,7 +3598,7 @@
         <v>70</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E38" s="3" t="b">
         <v>0</v>
@@ -3575,7 +3629,7 @@
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -3584,10 +3638,10 @@
         <v>1033</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E39" s="3" t="b">
         <v>0</v>
@@ -3618,7 +3672,7 @@
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -3630,7 +3684,7 @@
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E40" s="3" t="b">
         <v>0</v>
@@ -3661,7 +3715,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -3670,10 +3724,10 @@
         <v>1035</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E41" s="3" t="b">
         <v>0</v>
@@ -3704,7 +3758,7 @@
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -3713,10 +3767,10 @@
         <v>1036</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="3" t="b">
         <v>0</v>
@@ -3747,7 +3801,7 @@
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -3756,10 +3810,10 @@
         <v>1037</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E43" s="3" t="b">
         <v>0</v>
@@ -3790,7 +3844,7 @@
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -3799,10 +3853,10 @@
         <v>1038</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E44" s="3" t="b">
         <v>0</v>
@@ -3833,7 +3887,7 @@
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -3842,10 +3896,10 @@
         <v>1039</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E45" s="3" t="b">
         <v>0</v>
@@ -3869,14 +3923,14 @@
         <v>1038</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M45" s="5">
         <v>0</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -3885,10 +3939,10 @@
         <v>1040</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E46" s="3" t="b">
         <v>0</v>
@@ -3912,14 +3966,14 @@
         <v>1039</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M46" s="5">
         <v>0</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -3928,10 +3982,10 @@
         <v>1041</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E47" s="3" t="b">
         <v>0</v>
@@ -3955,14 +4009,14 @@
         <v>1040</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M47" s="5">
         <v>0</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -3971,10 +4025,10 @@
         <v>1042</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E48" s="3" t="b">
         <v>0</v>
@@ -3998,14 +4052,14 @@
         <v>1041</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M48" s="5">
         <v>0</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -4014,10 +4068,10 @@
         <v>1043</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E49" s="3" t="b">
         <v>0</v>
@@ -4041,14 +4095,14 @@
         <v>1042</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M49" s="5">
         <v>0</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -4057,10 +4111,10 @@
         <v>1044</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E50" s="3" t="b">
         <v>0</v>
@@ -4084,14 +4138,14 @@
         <v>1043</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M50" s="5">
         <v>0</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -4100,10 +4154,10 @@
         <v>1045</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E51" s="3" t="b">
         <v>0</v>
@@ -4127,14 +4181,14 @@
         <v>1044</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M51" s="5">
         <v>0</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -4143,10 +4197,10 @@
         <v>1046</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E52" s="3" t="b">
         <v>0</v>
@@ -4170,14 +4224,14 @@
         <v>1045</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M52" s="5">
         <v>0</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -4186,10 +4240,10 @@
         <v>1047</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E53" s="3" t="b">
         <v>0</v>
@@ -4213,14 +4267,14 @@
         <v>1046</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M53" s="5">
         <v>0</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -4229,10 +4283,10 @@
         <v>1048</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E54" s="3" t="b">
         <v>0</v>
@@ -4256,14 +4310,14 @@
         <v>1047</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M54" s="5">
         <v>0</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -4272,10 +4326,10 @@
         <v>1049</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E55" s="3" t="b">
         <v>0</v>
@@ -4299,14 +4353,14 @@
         <v>1048</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M55" s="5">
         <v>0</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -4315,10 +4369,10 @@
         <v>1050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E56" s="3" t="b">
         <v>0</v>
@@ -4342,14 +4396,14 @@
         <v>1049</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -4358,10 +4412,10 @@
         <v>1051</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E57" s="3" t="b">
         <v>0</v>
@@ -4385,14 +4439,14 @@
         <v>1050</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M57" s="5">
         <v>0</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -4401,10 +4455,10 @@
         <v>1052</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E58" s="3" t="b">
         <v>0</v>
@@ -4428,14 +4482,14 @@
         <v>1051</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M58" s="5">
         <v>0</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -4444,10 +4498,10 @@
         <v>1053</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E59" s="3" t="b">
         <v>0</v>
@@ -4471,14 +4525,14 @@
         <v>1052</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M59" s="5">
         <v>0</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -4490,7 +4544,7 @@
         <v>71</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E60" s="3" t="b">
         <v>0</v>
@@ -4514,14 +4568,14 @@
         <v>1053</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M60" s="5">
         <v>0</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -4530,10 +4584,10 @@
         <v>1055</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E61" s="3" t="b">
         <v>0</v>
@@ -4557,14 +4611,14 @@
         <v>1054</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M61" s="5">
         <v>0</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -4573,10 +4627,10 @@
         <v>1056</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E62" s="3" t="b">
         <v>0</v>
@@ -4600,14 +4654,14 @@
         <v>1055</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M62" s="5">
         <v>0</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -4616,10 +4670,10 @@
         <v>1057</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E63" s="17" t="b">
         <v>0</v>
@@ -4643,14 +4697,14 @@
         <v>1056</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M63" s="18">
         <v>0</v>
       </c>
       <c r="N63" s="18"/>
       <c r="O63" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -4659,10 +4713,10 @@
         <v>1058</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" s="17" t="b">
         <v>0</v>
@@ -4686,14 +4740,14 @@
         <v>1057</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M64" s="18">
         <v>0</v>
       </c>
       <c r="N64" s="18"/>
       <c r="O64" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +4979,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -4937,7 +4991,7 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="b">
@@ -4962,14 +5016,14 @@
         <v>2001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -4987,14 +5041,14 @@
         <v>2002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5012,14 +5066,14 @@
         <v>2003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5392,7 +5446,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -5404,10 +5458,10 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -5438,7 +5492,7 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5447,7 +5501,7 @@
         <v>1002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>50</v>
@@ -5481,7 +5535,7 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5968,7 +6022,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -5980,10 +6034,10 @@
         <v>10001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -6007,14 +6061,14 @@
         <v>4001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M7" s="5">
         <v>0.01</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6026,7 +6080,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -6050,14 +6104,14 @@
         <v>4002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" s="5">
         <v>0.01</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6066,10 +6120,10 @@
         <v>10003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -6093,16 +6147,16 @@
         <v>4003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M9" s="5">
         <v>0.01</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6111,10 +6165,10 @@
         <v>10004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -6138,16 +6192,16 @@
         <v>4004</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M10" s="5">
         <v>0.01</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6156,10 +6210,10 @@
         <v>10005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -6183,13 +6237,13 @@
         <v>4005</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M11" s="5">
         <v>0.01</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>36</v>
@@ -6204,7 +6258,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -6228,13 +6282,13 @@
         <v>4006</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M12" s="5">
         <v>0.01</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>38</v>
@@ -6249,7 +6303,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -6273,16 +6327,16 @@
         <v>4007</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M13" s="5">
         <v>0.01</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6294,7 +6348,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -6318,16 +6372,16 @@
         <v>4008</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M14" s="5">
         <v>0.01</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6339,7 +6393,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -6363,16 +6417,16 @@
         <v>4009</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M15" s="5">
         <v>0.01</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6384,7 +6438,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -6408,16 +6462,16 @@
         <v>4010</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M16" s="5">
         <v>0.01</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6426,10 +6480,10 @@
         <v>10011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -6453,14 +6507,14 @@
         <v>4011</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M17" s="5">
         <v>0.15</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6469,10 +6523,10 @@
         <v>10012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -6496,16 +6550,16 @@
         <v>4012</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M18" s="5">
         <v>0.01</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6514,10 +6568,10 @@
         <v>10013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -6541,16 +6595,16 @@
         <v>4013</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M19" s="5">
         <v>0.01</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6559,10 +6613,10 @@
         <v>10014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -6586,13 +6640,13 @@
         <v>4014</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M20" s="5">
         <v>0.01</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>36</v>
@@ -6604,10 +6658,10 @@
         <v>10015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -6631,13 +6685,13 @@
         <v>4015</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M21" s="5">
         <v>0.01</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>38</v>
@@ -6649,10 +6703,10 @@
         <v>10016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -6676,16 +6730,16 @@
         <v>4016</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M22" s="5">
         <v>0.01</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6694,10 +6748,10 @@
         <v>10017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -6721,16 +6775,16 @@
         <v>4017</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M23" s="5">
         <v>0.01</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6739,10 +6793,10 @@
         <v>10018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -6766,16 +6820,16 @@
         <v>4018</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M24" s="5">
         <v>0.01</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -6784,10 +6838,10 @@
         <v>10019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -6811,16 +6865,16 @@
         <v>4019</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M25" s="5">
         <v>0.01</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -7279,10 +7333,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7316,10 +7370,10 @@
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -7422,10 +7476,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>27</v>
@@ -7507,7 +7561,7 @@
         <v>17</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>18</v>
@@ -7519,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -7556,7 +7610,7 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7565,10 +7619,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -7602,7 +7656,7 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7611,10 +7665,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -7638,17 +7692,17 @@
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <v>5006</v>
+        <v>5011</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7657,10 +7711,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -7684,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>5011</v>
+        <v>5012</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>23</v>
@@ -7694,7 +7748,7 @@
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7703,10 +7757,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -7730,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>5012</v>
+        <v>5013</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>23</v>
@@ -7740,7 +7794,7 @@
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="6" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7749,10 +7803,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -7776,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>5013</v>
+        <v>5014</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>23</v>
@@ -7786,7 +7840,7 @@
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7795,10 +7849,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -7822,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>5014</v>
+        <v>5015</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>23</v>
@@ -7832,7 +7886,7 @@
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7841,10 +7895,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -7868,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>5015</v>
+        <v>5016</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>23</v>
@@ -7878,7 +7932,7 @@
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7887,10 +7941,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -7914,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <v>5016</v>
+        <v>5017</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>23</v>
@@ -7924,7 +7978,7 @@
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7933,10 +7987,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -7960,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>5017</v>
+        <v>5018</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>23</v>
@@ -7970,7 +8024,7 @@
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -7979,10 +8033,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -8006,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>5018</v>
+        <v>5019</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>23</v>
@@ -8016,7 +8070,7 @@
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8025,10 +8079,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -8052,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>5019</v>
+        <v>5020</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>23</v>
@@ -8062,7 +8116,7 @@
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8071,10 +8125,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -8098,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>5020</v>
+        <v>5032</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>23</v>
@@ -8108,7 +8162,7 @@
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8117,10 +8171,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -8144,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>5032</v>
+        <v>5033</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>23</v>
@@ -8154,7 +8208,7 @@
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8163,10 +8217,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -8190,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>5033</v>
+        <v>5034</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>23</v>
@@ -8200,7 +8254,7 @@
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8209,10 +8263,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -8236,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>23</v>
@@ -8246,7 +8300,7 @@
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8255,10 +8309,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -8282,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>5035</v>
+        <v>5036</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>23</v>
@@ -8292,7 +8346,7 @@
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8301,10 +8355,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -8328,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>5036</v>
+        <v>5037</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>23</v>
@@ -8338,7 +8392,7 @@
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8347,10 +8401,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -8374,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>5037</v>
+        <v>5038</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>23</v>
@@ -8384,7 +8438,7 @@
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8393,10 +8447,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -8420,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>23</v>
@@ -8430,7 +8484,7 @@
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8439,10 +8493,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -8466,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>23</v>
@@ -8476,7 +8530,7 @@
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8485,10 +8539,10 @@
         <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -8512,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="5">
-        <v>5040</v>
+        <v>5041</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>23</v>
@@ -8531,10 +8585,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -8558,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>23</v>
@@ -8568,7 +8622,7 @@
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8577,10 +8631,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -8604,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>5042</v>
+        <v>5043</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>23</v>
@@ -8614,7 +8668,7 @@
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="6" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8623,10 +8677,10 @@
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -8650,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <v>5043</v>
+        <v>5044</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>23</v>
@@ -8660,7 +8714,7 @@
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="6" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8669,10 +8723,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -8696,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>5044</v>
+        <v>5045</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>23</v>
@@ -8715,10 +8769,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -8742,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>5045</v>
+        <v>5046</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>23</v>
@@ -8761,10 +8815,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -8788,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>5046</v>
+        <v>5047</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>23</v>
@@ -8798,7 +8852,7 @@
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -8807,10 +8861,10 @@
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -8834,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="5">
-        <v>5047</v>
+        <v>5048</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>23</v>
@@ -8852,91 +8906,45 @@
       <c r="B36" s="3">
         <v>29</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>227</v>
+      <c r="C36" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
+      <c r="F36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0</v>
+      </c>
+      <c r="K36" s="17">
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>5048</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3">
-        <v>30</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
         <v>5067</v>
       </c>
-      <c r="M37" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="N37" s="18">
-        <v>0</v>
-      </c>
-      <c r="O37" s="18"/>
-      <c r="P37" s="19" t="s">
-        <v>125</v>
+      <c r="M36" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0</v>
+      </c>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8987,7 +8995,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>40</v>
@@ -9003,7 +9011,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>42</v>
@@ -9019,7 +9027,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
@@ -9043,13 +9051,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9057,13 +9065,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9071,13 +9079,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9091,7 +9099,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9105,7 +9113,7 @@
         <v>67</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9113,7 +9121,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -9135,19 +9143,19 @@
         <v>50</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9155,19 +9163,19 @@
         <v>55</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9175,13 +9183,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -9191,13 +9199,13 @@
         <v>64</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -9207,46 +9215,46 @@
         <v>68</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -9254,58 +9262,58 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
         <v>134</v>
-      </c>
-      <c r="B24" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
         <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
         <v>139</v>
-      </c>
-      <c r="B26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
         <v>141</v>
-      </c>
-      <c r="B27" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
         <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
         <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/tools/luban/Datas/Buffs.xlsx
+++ b/tools/luban/Datas/Buffs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A188B99-8438-42A8-ACA7-DD57A3A8C724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8ACE47-EB36-4389-9CF8-FCD95700A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
-    <sheet name="AbilityBuffs" sheetId="4" r:id="rId2"/>
-    <sheet name="MainBuffs" sheetId="5" r:id="rId3"/>
-    <sheet name="GoldBuffs" sheetId="7" r:id="rId4"/>
+    <sheet name="GoldBuffs" sheetId="7" r:id="rId2"/>
+    <sheet name="AbilityBuffs" sheetId="4" r:id="rId3"/>
+    <sheet name="MainBuffs" sheetId="5" r:id="rId4"/>
     <sheet name="TalentBuffs" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="321">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,30 +893,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
     <t>伤害</t>
-  </si>
-  <si>
-    <t>伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伤害 + %s</t>
-  </si>
-  <si>
-    <t>伤害 + %s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>防御 + %s</t>
-  </si>
-  <si>
-    <t>防御 + %s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1287,6 +1272,96 @@
   </si>
   <si>
     <t>Vision.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素抗性 +{}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素抗性 +{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素伤害 +{}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素伤害 +{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(100 - 480)防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(800 - 1000)防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(100 - 150)最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(200 - 300)最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(80 - 100)最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(1 - 100)防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)火焰抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)闪电抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)毒素抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)火焰伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)闪电伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)毒素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)冰霜抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(10% - 35%)冰霜伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>frost_damage</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1659,7 +1734,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1751,6 +1826,10 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="A标题" xfId="1" xr:uid="{38665B28-1CA9-4169-992B-71FBDCAB8781}"/>
@@ -2033,11 +2112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2265,7 +2344,7 @@
         <v>105</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -2308,7 +2387,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -2351,7 +2430,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -2394,7 +2473,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -2437,7 +2516,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -2480,7 +2559,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -2523,7 +2602,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -2566,7 +2645,7 @@
         <v>147</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -2609,7 +2688,7 @@
         <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -2652,7 +2731,7 @@
         <v>149</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -2695,7 +2774,7 @@
         <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -2738,7 +2817,7 @@
         <v>151</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -2781,7 +2860,7 @@
         <v>152</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -2824,7 +2903,7 @@
         <v>153</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -2867,7 +2946,7 @@
         <v>154</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -2910,7 +2989,7 @@
         <v>155</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2953,7 +3032,7 @@
         <v>156</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2996,7 +3075,7 @@
         <v>157</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -3039,7 +3118,7 @@
         <v>158</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -3082,7 +3161,7 @@
         <v>158</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>0</v>
@@ -3125,7 +3204,7 @@
         <v>161</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>0</v>
@@ -3168,7 +3247,7 @@
         <v>162</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>0</v>
@@ -3211,7 +3290,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>0</v>
@@ -3254,7 +3333,7 @@
         <v>107</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E30" s="3" t="b">
         <v>0</v>
@@ -3297,7 +3376,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E31" s="3" t="b">
         <v>0</v>
@@ -3340,7 +3419,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E32" s="3" t="b">
         <v>0</v>
@@ -3383,7 +3462,7 @@
         <v>159</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E33" s="3" t="b">
         <v>0</v>
@@ -3426,7 +3505,7 @@
         <v>160</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E34" s="3" t="b">
         <v>0</v>
@@ -3469,7 +3548,7 @@
         <v>163</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E35" s="3" t="b">
         <v>0</v>
@@ -3512,7 +3591,7 @@
         <v>164</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E36" s="3" t="b">
         <v>0</v>
@@ -3555,7 +3634,7 @@
         <v>165</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>0</v>
@@ -3598,7 +3677,7 @@
         <v>70</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E38" s="3" t="b">
         <v>0</v>
@@ -3641,7 +3720,7 @@
         <v>166</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E39" s="3" t="b">
         <v>0</v>
@@ -3672,7 +3751,7 @@
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -3684,7 +3763,7 @@
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E40" s="3" t="b">
         <v>0</v>
@@ -3727,7 +3806,7 @@
         <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E41" s="3" t="b">
         <v>0</v>
@@ -3770,7 +3849,7 @@
         <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E42" s="3" t="b">
         <v>0</v>
@@ -3813,7 +3892,7 @@
         <v>125</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E43" s="3" t="b">
         <v>0</v>
@@ -3856,7 +3935,7 @@
         <v>125</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E44" s="3" t="b">
         <v>0</v>
@@ -3899,7 +3978,7 @@
         <v>167</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E45" s="3" t="b">
         <v>0</v>
@@ -3942,7 +4021,7 @@
         <v>168</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E46" s="3" t="b">
         <v>0</v>
@@ -3985,7 +4064,7 @@
         <v>180</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E47" s="3" t="b">
         <v>0</v>
@@ -4028,7 +4107,7 @@
         <v>181</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E48" s="3" t="b">
         <v>0</v>
@@ -4071,7 +4150,7 @@
         <v>170</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E49" s="3" t="b">
         <v>0</v>
@@ -4114,7 +4193,7 @@
         <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E50" s="3" t="b">
         <v>0</v>
@@ -4157,7 +4236,7 @@
         <v>172</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E51" s="3" t="b">
         <v>0</v>
@@ -4200,7 +4279,7 @@
         <v>173</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E52" s="3" t="b">
         <v>0</v>
@@ -4243,7 +4322,7 @@
         <v>174</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E53" s="3" t="b">
         <v>0</v>
@@ -4286,7 +4365,7 @@
         <v>175</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E54" s="3" t="b">
         <v>0</v>
@@ -4329,7 +4408,7 @@
         <v>176</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E55" s="3" t="b">
         <v>0</v>
@@ -4372,7 +4451,7 @@
         <v>177</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E56" s="3" t="b">
         <v>0</v>
@@ -4415,7 +4494,7 @@
         <v>178</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E57" s="3" t="b">
         <v>0</v>
@@ -4458,7 +4537,7 @@
         <v>179</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E58" s="3" t="b">
         <v>0</v>
@@ -4501,7 +4580,7 @@
         <v>169</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E59" s="3" t="b">
         <v>0</v>
@@ -4532,7 +4611,7 @@
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -4544,7 +4623,7 @@
         <v>71</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E60" s="3" t="b">
         <v>0</v>
@@ -4587,7 +4666,7 @@
         <v>108</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E61" s="3" t="b">
         <v>0</v>
@@ -4618,7 +4697,7 @@
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -4630,7 +4709,7 @@
         <v>109</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E62" s="3" t="b">
         <v>0</v>
@@ -4661,94 +4740,59 @@
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
-      <c r="B63" s="3">
-        <v>1057</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E63" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17">
-        <v>0</v>
-      </c>
-      <c r="I63" s="17">
-        <v>0</v>
-      </c>
-      <c r="J63" s="17">
-        <v>0</v>
-      </c>
-      <c r="K63" s="5">
-        <v>1056</v>
-      </c>
-      <c r="L63" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="M63" s="18">
-        <v>0</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
       <c r="N63" s="18"/>
-      <c r="O63" s="19" t="s">
-        <v>189</v>
-      </c>
+      <c r="O63" s="19"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
-      <c r="B64" s="3">
-        <v>1058</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="17">
-        <v>0</v>
-      </c>
-      <c r="H64" s="17">
-        <v>0</v>
-      </c>
-      <c r="I64" s="17">
-        <v>0</v>
-      </c>
-      <c r="J64" s="17">
-        <v>0</v>
-      </c>
-      <c r="K64" s="5">
-        <v>1057</v>
-      </c>
-      <c r="L64" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="M64" s="18">
-        <v>0</v>
-      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
       <c r="N64" s="18"/>
-      <c r="O64" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="O64" s="19"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4763,6 +4807,2470 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
+  <dimension ref="A1:O73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4001</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>10002</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4002</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4003</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>10004</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4004</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4005</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>10006</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4006</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>10007</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4007</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>10008</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>4008</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>10009</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>4009</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>10010</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4010</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>10011</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4011</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>10012</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4012</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>10013</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>4013</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>10014</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4014</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>10015</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>4015</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>10016</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4016</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>10017</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>4017</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>10018</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>4018</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>10019</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4019</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>10020</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>4020</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="5">
+        <v>4021</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="5">
+        <v>4022</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="5">
+        <v>4023</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>10021</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>4024</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="5">
+        <v>4025</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="5">
+        <v>4026</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="5">
+        <v>4027</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>10022</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>4028</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="5">
+        <v>4029</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="5">
+        <v>4030</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="5">
+        <v>4031</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
+        <v>10023</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>4032</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="5">
+        <v>4033</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="5">
+        <v>4034</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="5">
+        <v>4035</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
+        <v>10024</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>4036</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>10025</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>4037</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
+        <v>10026</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>4038</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
+        <v>10027</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>4039</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>10028</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>4040</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3">
+        <v>10029</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>4041</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
+        <v>10030</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>4042</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
+        <v>10031</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <v>4043</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3">
+        <v>10032</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <v>4044</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3">
+        <v>10033</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>4045</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <v>10034</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>4046</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
+        <v>10035</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="E53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <v>4047</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3">
+        <v>10036</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="E54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>4048</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3">
+        <v>10037</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>4049</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70E9ED-200B-4E2A-A246-07D3C3D9231E}">
   <dimension ref="A1:O56"/>
   <sheetViews>
@@ -5243,7 +7751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B9E91-0C8B-457A-A47C-86F4B565998C}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -5458,10 +7966,10 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -5501,7 +8009,7 @@
         <v>1002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>50</v>
@@ -5806,1537 +8314,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
-  <dimension ref="A1:O51"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>4001</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
-        <v>10002</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>4002</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>4003</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
-        <v>10004</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>4004</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
-        <v>10005</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>4005</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>10006</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>4006</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
-        <v>10007</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>4007</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
-        <v>10008</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>4008</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
-        <v>10009</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>4009</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
-        <v>10010</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>4010</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <v>10011</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>4011</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3">
-        <v>10012</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>4012</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3">
-        <v>10013</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>4013</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3">
-        <v>10014</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>4014</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3">
-        <v>10015</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>4015</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3">
-        <v>10016</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>4016</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3">
-        <v>10017</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>4017</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3">
-        <v>10018</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
-        <v>4018</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3">
-        <v>10019</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>4019</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="6"/>
-    </row>
-    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="6"/>
-    </row>
-    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="6"/>
-    </row>
-    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="6"/>
-    </row>
-    <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7370,10 +8353,10 @@
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -7476,10 +8459,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>27</v>
@@ -7573,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -7619,10 +8602,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -7665,10 +8648,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -7711,10 +8694,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -7757,10 +8740,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -7803,10 +8786,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -7849,10 +8832,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -7895,10 +8878,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -7941,10 +8924,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -7987,10 +8970,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -8033,10 +9016,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -8079,10 +9062,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -8125,10 +9108,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -8171,10 +9154,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -8217,10 +9200,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -8263,10 +9246,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -8309,10 +9292,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -8355,10 +9338,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -8401,10 +9384,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -8447,10 +9430,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -8493,10 +9476,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -8539,10 +9522,10 @@
         <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -8585,10 +9568,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -8631,10 +9614,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -8677,10 +9660,10 @@
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -8723,10 +9706,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -8769,10 +9752,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -8815,10 +9798,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -8861,10 +9844,10 @@
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -8907,10 +9890,10 @@
         <v>29</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -8937,7 +9920,7 @@
         <v>5067</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N36" s="18">
         <v>0</v>
@@ -9246,7 +10229,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>131</v>
@@ -9310,10 +10293,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/tools/luban/Datas/Buffs.xlsx
+++ b/tools/luban/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8ACE47-EB36-4389-9CF8-FCD95700A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1AF9E-3EEE-4F2C-8E65-A405BB879A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -1769,6 +1769,10 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1826,10 +1830,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="A标题" xfId="1" xr:uid="{38665B28-1CA9-4169-992B-71FBDCAB8781}"/>
@@ -2170,13 +2170,13 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2209,13 +2209,13 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2230,13 +2230,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2269,13 +2269,13 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -4810,8 +4810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4819,7 +4819,7 @@
   <cols>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
@@ -4843,7 +4843,7 @@
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -4864,13 +4864,13 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4882,7 +4882,7 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4903,13 +4903,13 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -4917,20 +4917,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="40"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -4942,7 +4942,7 @@
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4963,13 +4963,13 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="40"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="40"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5037,7 +5037,7 @@
       <c r="C7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="22" t="s">
         <v>229</v>
       </c>
       <c r="E7" s="3" t="b">
@@ -5080,7 +5080,7 @@
       <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="22" t="s">
         <v>230</v>
       </c>
       <c r="E8" s="3" t="b">
@@ -5123,7 +5123,7 @@
       <c r="C9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="22" t="s">
         <v>232</v>
       </c>
       <c r="E9" s="3" t="b">
@@ -5168,7 +5168,7 @@
       <c r="C10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="22" t="s">
         <v>234</v>
       </c>
       <c r="E10" s="3" t="b">
@@ -5213,7 +5213,7 @@
       <c r="C11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="22" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="3" t="b">
@@ -5258,7 +5258,7 @@
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="22" t="s">
         <v>236</v>
       </c>
       <c r="E12" s="3" t="b">
@@ -5303,7 +5303,7 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="22" t="s">
         <v>237</v>
       </c>
       <c r="E13" s="3" t="b">
@@ -5348,7 +5348,7 @@
       <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="22" t="s">
         <v>239</v>
       </c>
       <c r="E14" s="3" t="b">
@@ -5393,7 +5393,7 @@
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="22" t="s">
         <v>240</v>
       </c>
       <c r="E15" s="3" t="b">
@@ -5438,7 +5438,7 @@
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="22" t="s">
         <v>241</v>
       </c>
       <c r="E16" s="3" t="b">
@@ -5483,7 +5483,7 @@
       <c r="C17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="22" t="s">
         <v>242</v>
       </c>
       <c r="E17" s="3" t="b">
@@ -5526,7 +5526,7 @@
       <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="22" t="s">
         <v>243</v>
       </c>
       <c r="E18" s="3" t="b">
@@ -5571,7 +5571,7 @@
       <c r="C19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="22" t="s">
         <v>244</v>
       </c>
       <c r="E19" s="3" t="b">
@@ -5616,7 +5616,7 @@
       <c r="C20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E20" s="3" t="b">
@@ -5661,7 +5661,7 @@
       <c r="C21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="22" t="s">
         <v>246</v>
       </c>
       <c r="E21" s="3" t="b">
@@ -5706,7 +5706,7 @@
       <c r="C22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="22" t="s">
         <v>247</v>
       </c>
       <c r="E22" s="3" t="b">
@@ -5751,7 +5751,7 @@
       <c r="C23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="22" t="s">
         <v>248</v>
       </c>
       <c r="E23" s="3" t="b">
@@ -5796,7 +5796,7 @@
       <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="22" t="s">
         <v>249</v>
       </c>
       <c r="E24" s="3" t="b">
@@ -5841,7 +5841,7 @@
       <c r="C25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="22" t="s">
         <v>250</v>
       </c>
       <c r="E25" s="3" t="b">
@@ -5886,7 +5886,7 @@
       <c r="C26" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="22" t="s">
         <v>299</v>
       </c>
       <c r="E26" s="3" t="b">
@@ -5925,7 +5925,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="41"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -5950,7 +5950,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="41"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5975,7 +5975,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -6004,7 +6004,7 @@
       <c r="C30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="22" t="s">
         <v>300</v>
       </c>
       <c r="E30" s="3" t="b">
@@ -6043,7 +6043,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6068,7 +6068,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="41"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6093,7 +6093,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -6122,7 +6122,7 @@
       <c r="C34" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="22" t="s">
         <v>301</v>
       </c>
       <c r="E34" s="3" t="b">
@@ -6161,7 +6161,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -6186,7 +6186,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -6211,7 +6211,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="41"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -6240,7 +6240,7 @@
       <c r="C38" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="22" t="s">
         <v>302</v>
       </c>
       <c r="E38" s="3" t="b">
@@ -6279,7 +6279,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="41"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -6304,7 +6304,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="41"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -6329,7 +6329,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="41"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -6358,7 +6358,7 @@
       <c r="C42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="22" t="s">
         <v>303</v>
       </c>
       <c r="E42" s="3" t="b">
@@ -6401,7 +6401,7 @@
       <c r="C43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="22" t="s">
         <v>308</v>
       </c>
       <c r="E43" s="3" t="b">
@@ -6444,7 +6444,7 @@
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="22" t="s">
         <v>304</v>
       </c>
       <c r="E44" s="3" t="b">
@@ -6487,7 +6487,7 @@
       <c r="C45" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="22" t="s">
         <v>305</v>
       </c>
       <c r="E45" s="3" t="b">
@@ -6530,7 +6530,7 @@
       <c r="C46" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="22" t="s">
         <v>306</v>
       </c>
       <c r="E46" s="3" t="b">
@@ -6573,7 +6573,7 @@
       <c r="C47" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="22" t="s">
         <v>307</v>
       </c>
       <c r="E47" s="3" t="b">
@@ -6616,7 +6616,7 @@
       <c r="C48" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="22" t="s">
         <v>309</v>
       </c>
       <c r="E48" s="3" t="b">
@@ -6659,7 +6659,7 @@
       <c r="C49" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="22" t="s">
         <v>310</v>
       </c>
       <c r="E49" s="3" t="b">
@@ -6702,7 +6702,7 @@
       <c r="C50" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="22" t="s">
         <v>311</v>
       </c>
       <c r="E50" s="3" t="b">
@@ -6745,7 +6745,7 @@
       <c r="C51" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="22" t="s">
         <v>315</v>
       </c>
       <c r="E51" s="3" t="b">
@@ -6788,7 +6788,7 @@
       <c r="C52" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="22" t="s">
         <v>312</v>
       </c>
       <c r="E52" s="3" t="b">
@@ -6831,7 +6831,7 @@
       <c r="C53" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="22" t="s">
         <v>313</v>
       </c>
       <c r="E53" s="3" t="b">
@@ -6874,7 +6874,7 @@
       <c r="C54" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="22" t="s">
         <v>314</v>
       </c>
       <c r="E54" s="3" t="b">
@@ -6917,7 +6917,7 @@
       <c r="C55" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="22" t="s">
         <v>316</v>
       </c>
       <c r="E55" s="3" t="b">
@@ -6956,7 +6956,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="41"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -6973,7 +6973,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="41"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -6990,7 +6990,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="41"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -7007,7 +7007,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="41"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -7024,7 +7024,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="41"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -7041,7 +7041,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="41"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -7058,7 +7058,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="41"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -7075,7 +7075,7 @@
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="41"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -7092,7 +7092,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="41"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -7109,7 +7109,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="41"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -7126,7 +7126,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="41"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -7143,7 +7143,7 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="41"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -7160,7 +7160,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="41"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -7177,7 +7177,7 @@
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="41"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -7194,7 +7194,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="41"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -7211,7 +7211,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="41"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -7228,7 +7228,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="41"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -7245,7 +7245,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="41"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -7274,8 +7274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70E9ED-200B-4E2A-A246-07D3C3D9231E}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7328,13 +7328,13 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -7367,13 +7367,13 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -7388,13 +7388,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -7427,13 +7427,13 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -7603,68 +7603,180 @@
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
@@ -7795,13 +7907,13 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -7834,13 +7946,13 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -7855,13 +7967,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -7894,13 +8006,13 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -8376,13 +8488,13 @@
       <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -8418,13 +8530,13 @@
       <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -8440,13 +8552,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -8482,13 +8594,13 @@
       <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -9962,11 +10074,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="15"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -10022,11 +10134,11 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -10110,16 +10222,16 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">

--- a/tools/luban/Datas/Buffs.xlsx
+++ b/tools/luban/Datas/Buffs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1AF9E-3EEE-4F2C-8E65-A405BB879A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECCC0F-7137-4D55-997C-1EE1570B452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -2112,34 +2112,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63:M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="20.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1001</v>
@@ -2378,7 +2378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1002</v>
@@ -2421,7 +2421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1003</v>
@@ -2464,7 +2464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1004</v>
@@ -2507,7 +2507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>1005</v>
@@ -2550,7 +2550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1006</v>
@@ -2593,7 +2593,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1007</v>
@@ -2636,7 +2636,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1008</v>
@@ -2679,7 +2679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1009</v>
@@ -2722,7 +2722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>1010</v>
@@ -2765,7 +2765,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1011</v>
@@ -2808,7 +2808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>1012</v>
@@ -2851,7 +2851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1013</v>
@@ -2894,7 +2894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>1014</v>
@@ -2937,7 +2937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1015</v>
@@ -2980,7 +2980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>1016</v>
@@ -3023,7 +3023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>1017</v>
@@ -3066,7 +3066,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>1018</v>
@@ -3109,7 +3109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>1019</v>
@@ -3152,7 +3152,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>1020</v>
@@ -3195,7 +3195,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>1021</v>
@@ -3238,7 +3238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>1022</v>
@@ -3281,7 +3281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>1023</v>
@@ -3324,7 +3324,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>1024</v>
@@ -3367,7 +3367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>1025</v>
@@ -3410,7 +3410,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>1026</v>
@@ -3453,7 +3453,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>1027</v>
@@ -3496,7 +3496,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>1028</v>
@@ -3539,7 +3539,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>1029</v>
@@ -3582,7 +3582,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3">
         <v>1030</v>
@@ -3625,7 +3625,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>1031</v>
@@ -3668,7 +3668,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>1032</v>
@@ -3711,7 +3711,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>1033</v>
@@ -3754,7 +3754,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3">
         <v>1034</v>
@@ -3797,7 +3797,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>1035</v>
@@ -3840,7 +3840,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3">
         <v>1036</v>
@@ -3883,7 +3883,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>1037</v>
@@ -3926,7 +3926,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>1038</v>
@@ -3969,7 +3969,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>1039</v>
@@ -4012,7 +4012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3">
         <v>1040</v>
@@ -4055,7 +4055,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>1041</v>
@@ -4098,7 +4098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3">
         <v>1042</v>
@@ -4141,7 +4141,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>1043</v>
@@ -4184,7 +4184,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3">
         <v>1044</v>
@@ -4227,7 +4227,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>1045</v>
@@ -4270,7 +4270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3">
         <v>1046</v>
@@ -4313,7 +4313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3">
         <v>1047</v>
@@ -4356,7 +4356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3">
         <v>1048</v>
@@ -4399,7 +4399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3">
         <v>1049</v>
@@ -4442,7 +4442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3">
         <v>1050</v>
@@ -4485,7 +4485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3">
         <v>1051</v>
@@ -4528,7 +4528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3">
         <v>1052</v>
@@ -4571,7 +4571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3">
         <v>1053</v>
@@ -4614,7 +4614,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3">
         <v>1054</v>
@@ -4657,7 +4657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3">
         <v>1055</v>
@@ -4700,7 +4700,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3">
         <v>1056</v>
@@ -4743,7 +4743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="17"/>
@@ -4760,7 +4760,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="19"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="17"/>
@@ -4777,7 +4777,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="19"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="17"/>
@@ -4793,6 +4793,414 @@
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
       <c r="O65" s="19"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="19"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="19"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="19"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="19"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="19"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="19"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="19"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="19"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="19"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="19"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="19"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="19"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="19"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="19"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="19"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="19"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="19"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="19"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="19"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="19"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="19"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="19"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="19"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4811,29 +5219,29 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -4872,7 +5280,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4911,7 +5319,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4932,7 +5340,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4971,7 +5379,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -5000,7 +5408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5029,7 +5437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>10001</v>
@@ -5072,7 +5480,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>10002</v>
@@ -5115,7 +5523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>10003</v>
@@ -5160,7 +5568,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>10004</v>
@@ -5205,7 +5613,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>10005</v>
@@ -5250,7 +5658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>10006</v>
@@ -5295,7 +5703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>10007</v>
@@ -5340,7 +5748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>10008</v>
@@ -5385,7 +5793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>10009</v>
@@ -5430,7 +5838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>10010</v>
@@ -5475,7 +5883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>10011</v>
@@ -5518,7 +5926,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>10012</v>
@@ -5563,7 +5971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>10013</v>
@@ -5608,7 +6016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>10014</v>
@@ -5653,7 +6061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>10015</v>
@@ -5698,7 +6106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>10016</v>
@@ -5743,7 +6151,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>10017</v>
@@ -5788,7 +6196,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>10018</v>
@@ -5833,7 +6241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>10019</v>
@@ -5878,7 +6286,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>10020</v>
@@ -5921,7 +6329,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5946,7 +6354,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5971,7 +6379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5996,7 +6404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>10021</v>
@@ -6039,7 +6447,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6064,7 +6472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6089,7 +6497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6114,7 +6522,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>10022</v>
@@ -6157,7 +6565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6182,7 +6590,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6207,7 +6615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6232,7 +6640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>10023</v>
@@ -6275,7 +6683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6300,7 +6708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6325,7 +6733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6350,7 +6758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3">
         <v>10024</v>
@@ -6393,7 +6801,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>10025</v>
@@ -6436,7 +6844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>10026</v>
@@ -6479,7 +6887,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>10027</v>
@@ -6522,7 +6930,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3">
         <v>10028</v>
@@ -6565,7 +6973,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>10029</v>
@@ -6608,7 +7016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3">
         <v>10030</v>
@@ -6651,7 +7059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>10031</v>
@@ -6694,7 +7102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3">
         <v>10032</v>
@@ -6737,7 +7145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>10033</v>
@@ -6780,7 +7188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3">
         <v>10034</v>
@@ -6823,7 +7231,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3">
         <v>10035</v>
@@ -6866,7 +7274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3">
         <v>10036</v>
@@ -6909,7 +7317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3">
         <v>10037</v>
@@ -6952,7 +7360,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6969,7 +7377,7 @@
       <c r="N56" s="5"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6986,7 +7394,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -7003,7 +7411,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -7020,7 +7428,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -7037,7 +7445,7 @@
       <c r="N60" s="5"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7054,7 +7462,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7071,7 +7479,7 @@
       <c r="N62" s="5"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7088,7 +7496,7 @@
       <c r="N63" s="5"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7105,7 +7513,7 @@
       <c r="N64" s="5"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7122,7 +7530,7 @@
       <c r="N65" s="5"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7139,7 +7547,7 @@
       <c r="N66" s="5"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7156,7 +7564,7 @@
       <c r="N67" s="5"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -7173,7 +7581,7 @@
       <c r="N68" s="5"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -7190,7 +7598,7 @@
       <c r="N69" s="5"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7207,7 +7615,7 @@
       <c r="N70" s="5"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -7224,7 +7632,7 @@
       <c r="N71" s="5"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -7241,7 +7649,7 @@
       <c r="N72" s="5"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -7274,30 +7682,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70E9ED-200B-4E2A-A246-07D3C3D9231E}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -7336,7 +7744,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -7375,7 +7783,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7396,7 +7804,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -7435,7 +7843,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -7464,7 +7872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -7493,7 +7901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1001</v>
@@ -7534,7 +7942,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7559,7 +7967,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7584,7 +7992,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7601,7 +8009,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7618,7 +8026,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7635,7 +8043,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7652,7 +8060,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7669,7 +8077,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7686,7 +8094,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7703,7 +8111,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7720,7 +8128,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7737,118 +8145,118 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
     </row>
   </sheetData>
@@ -7871,12 +8279,12 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -7915,7 +8323,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -7954,7 +8362,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7975,7 +8383,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -8014,7 +8422,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -8043,7 +8451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -8072,7 +8480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1001</v>
@@ -8115,7 +8523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1002</v>
@@ -8158,7 +8566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -8175,7 +8583,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8192,7 +8600,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8209,7 +8617,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8226,7 +8634,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8243,7 +8651,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8260,7 +8668,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8277,7 +8685,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8294,7 +8702,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8311,7 +8719,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8328,7 +8736,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8345,7 +8753,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8362,7 +8770,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8379,7 +8787,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8396,7 +8804,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8434,27 +8842,27 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8496,7 +8904,7 @@
       <c r="O1" s="25"/>
       <c r="P1" s="26"/>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8538,7 +8946,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -8560,7 +8968,7 @@
       <c r="O3" s="34"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -8602,7 +9010,7 @@
       <c r="O4" s="31"/>
       <c r="P4" s="32"/>
     </row>
-    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -8632,7 +9040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -8662,7 +9070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>0</v>
@@ -8708,7 +9116,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1</v>
@@ -8754,7 +9162,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>2</v>
@@ -8800,7 +9208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>3</v>
@@ -8846,7 +9254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>4</v>
@@ -8892,7 +9300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>5</v>
@@ -8938,7 +9346,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>6</v>
@@ -8984,7 +9392,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>7</v>
@@ -9030,7 +9438,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>8</v>
@@ -9076,7 +9484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>9</v>
@@ -9122,7 +9530,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>10</v>
@@ -9168,7 +9576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>11</v>
@@ -9214,7 +9622,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>12</v>
@@ -9260,7 +9668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>13</v>
@@ -9306,7 +9714,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>14</v>
@@ -9352,7 +9760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>15</v>
@@ -9398,7 +9806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>16</v>
@@ -9444,7 +9852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>17</v>
@@ -9490,7 +9898,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>18</v>
@@ -9536,7 +9944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>19</v>
@@ -9582,7 +9990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>20</v>
@@ -9628,7 +10036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>21</v>
@@ -9674,7 +10082,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>22</v>
@@ -9720,7 +10128,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>23</v>
@@ -9766,7 +10174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>24</v>
@@ -9812,7 +10220,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>25</v>
@@ -9858,7 +10266,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>26</v>
@@ -9904,7 +10312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>27</v>
@@ -9950,7 +10358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>28</v>
@@ -9996,7 +10404,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3">
         <v>29</v>
@@ -10062,18 +10470,18 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -10085,7 +10493,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>71</v>
       </c>
@@ -10101,7 +10509,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
@@ -10117,7 +10525,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -10133,7 +10541,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>45</v>
       </c>
@@ -10141,7 +10549,7 @@
       <c r="C5" s="41"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
@@ -10155,7 +10563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>53</v>
       </c>
@@ -10169,7 +10577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -10183,7 +10591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>62</v>
       </c>
@@ -10197,7 +10605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>66</v>
       </c>
@@ -10211,7 +10619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>70</v>
       </c>
@@ -10221,7 +10629,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>46</v>
       </c>
@@ -10233,7 +10641,7 @@
       </c>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>50</v>
       </c>
@@ -10253,7 +10661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
@@ -10273,7 +10681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
@@ -10289,7 +10697,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>64</v>
       </c>
@@ -10305,7 +10713,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>68</v>
       </c>
@@ -10321,17 +10729,17 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>130</v>
       </c>
@@ -10339,7 +10747,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>192</v>
       </c>
@@ -10347,7 +10755,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>132</v>
       </c>
@@ -10355,7 +10763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>133</v>
       </c>
@@ -10363,7 +10771,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>135</v>
       </c>
@@ -10371,7 +10779,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>138</v>
       </c>
@@ -10379,7 +10787,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>140</v>
       </c>
@@ -10387,7 +10795,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>142</v>
       </c>
@@ -10395,7 +10803,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>144</v>
       </c>
@@ -10403,7 +10811,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>188</v>
       </c>
